--- a/CampaignTP.xlsx
+++ b/CampaignTP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -94,19 +94,7 @@
     <x:t>User should be able to input value for the Actual Cost in Campaign field.</x:t>
   </x:si>
   <x:si>
-    <x:t>Valid value for required field Description .</x:t>
-  </x:si>
-  <x:si>
     <x:t>Step 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Description field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Description field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 5</x:t>
   </x:si>
   <x:si>
     <x:t>Click on Save button to save Campaign with fields</x:t>
@@ -259,8 +247,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K16" totalsRowShown="0">
-  <x:autoFilter ref="A1:K16"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K14" totalsRowShown="0">
+  <x:autoFilter ref="A1:K14"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -566,7 +554,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K16"/>
+  <x:dimension ref="A1:K14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -694,109 +682,109 @@
       <x:c r="B5" s="0" t="s"/>
       <x:c r="C5" s="0" t="s"/>
       <x:c r="D5" s="0" t="s"/>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="E5" s="0" t="s"/>
+      <x:c r="F5" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="G5" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
+      <x:c r="H5" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
       <x:c r="K5" s="0" t="s"/>
     </x:row>
     <x:row r="6" spans="1:11">
-      <x:c r="A6" s="0" t="s"/>
-      <x:c r="B6" s="0" t="s"/>
-      <x:c r="C6" s="0" t="s"/>
-      <x:c r="D6" s="0" t="s"/>
+      <x:c r="A6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
       <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
       <x:c r="K6" s="0" t="s"/>
     </x:row>
     <x:row r="7" spans="1:11">
-      <x:c r="A7" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
       <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
       <x:c r="K7" s="0" t="s"/>
     </x:row>
     <x:row r="8" spans="1:11">
-      <x:c r="A8" s="0" t="s"/>
-      <x:c r="B8" s="0" t="s"/>
-      <x:c r="C8" s="0" t="s"/>
-      <x:c r="D8" s="0" t="s"/>
+      <x:c r="A8" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
       <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
       <x:c r="K8" s="0" t="s"/>
     </x:row>
     <x:row r="9" spans="1:11">
-      <x:c r="A9" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s"/>
+      <x:c r="A9" s="0" t="s"/>
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
@@ -808,16 +796,16 @@
       <x:c r="C10" s="0" t="s"/>
       <x:c r="D10" s="0" t="s"/>
       <x:c r="E10" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
@@ -828,38 +816,42 @@
       <x:c r="B11" s="0" t="s"/>
       <x:c r="C11" s="0" t="s"/>
       <x:c r="D11" s="0" t="s"/>
-      <x:c r="E11" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
+      <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
       <x:c r="K11" s="0" t="s"/>
     </x:row>
     <x:row r="12" spans="1:11">
-      <x:c r="A12" s="0" t="s"/>
-      <x:c r="B12" s="0" t="s"/>
-      <x:c r="C12" s="0" t="s"/>
-      <x:c r="D12" s="0" t="s"/>
-      <x:c r="E12" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
+      <x:c r="A12" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s"/>
       <x:c r="F12" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
@@ -872,82 +864,36 @@
       <x:c r="D13" s="0" t="s"/>
       <x:c r="E13" s="0" t="s"/>
       <x:c r="F13" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
       <x:c r="K13" s="0" t="s"/>
     </x:row>
     <x:row r="14" spans="1:11">
-      <x:c r="A14" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
+      <x:c r="A14" s="0" t="s"/>
+      <x:c r="B14" s="0" t="s"/>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
       <x:c r="E14" s="0" t="s"/>
       <x:c r="F14" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
         <x:v>49</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>44</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
       <x:c r="K14" s="0" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:11">
-      <x:c r="A15" s="0" t="s"/>
-      <x:c r="B15" s="0" t="s"/>
-      <x:c r="C15" s="0" t="s"/>
-      <x:c r="D15" s="0" t="s"/>
-      <x:c r="E15" s="0" t="s"/>
-      <x:c r="F15" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="I15" s="0" t="s"/>
-      <x:c r="J15" s="0" t="s"/>
-      <x:c r="K15" s="0" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:11">
-      <x:c r="A16" s="0" t="s"/>
-      <x:c r="B16" s="0" t="s"/>
-      <x:c r="C16" s="0" t="s"/>
-      <x:c r="D16" s="0" t="s"/>
-      <x:c r="E16" s="0" t="s"/>
-      <x:c r="F16" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="I16" s="0" t="s"/>
-      <x:c r="J16" s="0" t="s"/>
-      <x:c r="K16" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
